--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_20.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32859-d1224638-Reviews-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Astro-Pasadena-Hotel.h9558994.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_20.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_20.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,336 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r544314514-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>32859</t>
+  </si>
+  <si>
+    <t>1224638</t>
+  </si>
+  <si>
+    <t>544314514</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Damaged my car in parking lot on 2 different occasions</t>
+  </si>
+  <si>
+    <t>The people are nice, rooms are nice but they have more rooms than parking spaces so they take your keys and double park cars. There's $1000 dollars worth of paint damage to my Lexus and that's not good</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r542738818-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>542738818</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>I downloaded Tripadvisor just to leave this place a great review!</t>
+  </si>
+  <si>
+    <t>Honestly I LOVED this hotel! I rented a King-sized room and it was lovely - clean, modern and very comfortable. Location is great, really close to a lot of the basics and just far outside of LA enough to skip the traffic when I was driving. Fridge &amp; a microwave as well, both new and lovely. The carpet and all the fixtures were obviously new and very tasteful, and it was hands down the cleanest, nicest bathroom I stayed in all trip. The airline lost my bag and were late delivering it to the hotel, so I was frantically calling and stopping by the front desk all hours looking for it, and the staff were nothing but accommodating and friendly every single time. I couldn't recommend this place highly enough! I know a friend who stopped by to pick me up was equally impressed and has already recommended it to other visiting friends. I'll definitely stay again next time I'm in LA.. thank you Astro Pasadena for making my stay in LA so comfortable :)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Honestly I LOVED this hotel! I rented a King-sized room and it was lovely - clean, modern and very comfortable. Location is great, really close to a lot of the basics and just far outside of LA enough to skip the traffic when I was driving. Fridge &amp; a microwave as well, both new and lovely. The carpet and all the fixtures were obviously new and very tasteful, and it was hands down the cleanest, nicest bathroom I stayed in all trip. The airline lost my bag and were late delivering it to the hotel, so I was frantically calling and stopping by the front desk all hours looking for it, and the staff were nothing but accommodating and friendly every single time. I couldn't recommend this place highly enough! I know a friend who stopped by to pick me up was equally impressed and has already recommended it to other visiting friends. I'll definitely stay again next time I'm in LA.. thank you Astro Pasadena for making my stay in LA so comfortable :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r512782690-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>512782690</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>If you enjoy poorly cleaned rooms, cigarette smoke and abysmal customer service, this is the place for you!</t>
+  </si>
+  <si>
+    <t>My first red flag was when i emailed the hotel prior to check in to find out more information and i did not receive a response. The second was when i called to inquire and was hung up on twice then finally got an extremely rude answer.
+Upon arriving at the 'hotel' (motel with some red plastic inappropriately screwed to the front of the furnishings now = hotel, obviously), i was able to check in with ease, 30 minutes before check in time and the man at the front desk was much more pleasant in person. I thought it was going to be ok after all.
+Upon entering the room (past the cigarette filled trash cans outside my door), i noticed the room had been updated with a modern twist. Nice idea however, nobody seems to have got the memo that hotel rooms need to be cleaned after every guest, not just paint over the filth once every decade. The walls on the right as i walked in were covered in dirt and had streaks running down them from some sort of liquid.
+The bed sheets had stains and looked as if they had seen better days though thankfully, they had been washed. The surfaces around the room were all covered in hand prints and sticky residues. I took the wash cloths from the bathroom and cleaned them before i could begin unpacking and managed to scrape some of the...My first red flag was when i emailed the hotel prior to check in to find out more information and i did not receive a response. The second was when i called to inquire and was hung up on twice then finally got an extremely rude answer.Upon arriving at the 'hotel' (motel with some red plastic inappropriately screwed to the front of the furnishings now = hotel, obviously), i was able to check in with ease, 30 minutes before check in time and the man at the front desk was much more pleasant in person. I thought it was going to be ok after all.Upon entering the room (past the cigarette filled trash cans outside my door), i noticed the room had been updated with a modern twist. Nice idea however, nobody seems to have got the memo that hotel rooms need to be cleaned after every guest, not just paint over the filth once every decade. The walls on the right as i walked in were covered in dirt and had streaks running down them from some sort of liquid.The bed sheets had stains and looked as if they had seen better days though thankfully, they had been washed. The surfaces around the room were all covered in hand prints and sticky residues. I took the wash cloths from the bathroom and cleaned them before i could begin unpacking and managed to scrape some of the caked on food out of the remote so that i dared use it.Upon entering the bathroom, i noticed the mirror was cracked and somebody had carved letters into it. The door was covered in toothpaste and other residues that i can only hope were not fluids excreted from another human. The towels were very small and thin but perfect for cleaning a hotel room. I would recommend using the hotel ones for cleaning and bringing your own to take a shower.On a positive note, the tv has an excellent selection of channels, just make sure you are watching something with plenty of color so you cant see the hand prints and the wifi was very good. There were some nice lights with dimmer switches at the side of the bed which were a nice alternative to lamps. I assume the dollar store extension cable hanging above the door powering who knows what has actually been a fantastic investment.If you need to sleep and you don't mind listening to your upstairs neighbors using the bathroom and you will be on your way again the next morning, this place is perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>My first red flag was when i emailed the hotel prior to check in to find out more information and i did not receive a response. The second was when i called to inquire and was hung up on twice then finally got an extremely rude answer.
+Upon arriving at the 'hotel' (motel with some red plastic inappropriately screwed to the front of the furnishings now = hotel, obviously), i was able to check in with ease, 30 minutes before check in time and the man at the front desk was much more pleasant in person. I thought it was going to be ok after all.
+Upon entering the room (past the cigarette filled trash cans outside my door), i noticed the room had been updated with a modern twist. Nice idea however, nobody seems to have got the memo that hotel rooms need to be cleaned after every guest, not just paint over the filth once every decade. The walls on the right as i walked in were covered in dirt and had streaks running down them from some sort of liquid.
+The bed sheets had stains and looked as if they had seen better days though thankfully, they had been washed. The surfaces around the room were all covered in hand prints and sticky residues. I took the wash cloths from the bathroom and cleaned them before i could begin unpacking and managed to scrape some of the...My first red flag was when i emailed the hotel prior to check in to find out more information and i did not receive a response. The second was when i called to inquire and was hung up on twice then finally got an extremely rude answer.Upon arriving at the 'hotel' (motel with some red plastic inappropriately screwed to the front of the furnishings now = hotel, obviously), i was able to check in with ease, 30 minutes before check in time and the man at the front desk was much more pleasant in person. I thought it was going to be ok after all.Upon entering the room (past the cigarette filled trash cans outside my door), i noticed the room had been updated with a modern twist. Nice idea however, nobody seems to have got the memo that hotel rooms need to be cleaned after every guest, not just paint over the filth once every decade. The walls on the right as i walked in were covered in dirt and had streaks running down them from some sort of liquid.The bed sheets had stains and looked as if they had seen better days though thankfully, they had been washed. The surfaces around the room were all covered in hand prints and sticky residues. I took the wash cloths from the bathroom and cleaned them before i could begin unpacking and managed to scrape some of the caked on food out of the remote so that i dared use it.Upon entering the bathroom, i noticed the mirror was cracked and somebody had carved letters into it. The door was covered in toothpaste and other residues that i can only hope were not fluids excreted from another human. The towels were very small and thin but perfect for cleaning a hotel room. I would recommend using the hotel ones for cleaning and bringing your own to take a shower.On a positive note, the tv has an excellent selection of channels, just make sure you are watching something with plenty of color so you cant see the hand prints and the wifi was very good. There were some nice lights with dimmer switches at the side of the bed which were a nice alternative to lamps. I assume the dollar store extension cable hanging above the door powering who knows what has actually been a fantastic investment.If you need to sleep and you don't mind listening to your upstairs neighbors using the bathroom and you will be on your way again the next morning, this place is perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r491118322-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>491118322</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Ok for the night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok for the night. Dingy carpet and throw pillows, big clump of hair in the shower, felt like a concrete box and though the fact that the TV was more like 40 inches and this didn't diminish our stay, they make a big deal about having 55 inch TVs and the false advertising was irritating when considered with everything else. They also don't offer breakfast which is a pretty standard amenity.  The bed was comfortable enough though and they have free parking. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r484769770-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>484769770</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Cute, retro, convenient</t>
+  </si>
+  <si>
+    <t>Reasonable, very well located for accessing most of LA within one hour: the beach, Griffith park, Universal Studios, erc. Downtown Pasadena is delightful. The hotel room was clean, bed was comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r466267692-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>466267692</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Great value for money</t>
+  </si>
+  <si>
+    <t>Well located in a quiet Pasadena neighbourhood.Recently renovated, with clean and spacious rooms. Fridge and microwave in the room but no water heater.Free parking.Nice Indian couple running the show.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r444068332-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>444068332</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Covenient location</t>
+  </si>
+  <si>
+    <t>The location was convenient for where we needed to be. Easy access to shops down E Colorado Blvd, Denny's for breakfast/dinner; with a car it is not far to the old town, also saw several buses but didn't use them.The initial impression wasn't great but the room made up for it - nice decor with mini fridge and microwave.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r442863820-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>442863820</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Super cool place!</t>
+  </si>
+  <si>
+    <t>This hotel was super cool! I love how it was decorated! The bed was comfy and the room was very clean. There was a mini fridge and microwave and lots of.storage room. Big tv and very cool bathroom! I'm glad we found this place!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r434696903-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>434696903</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Nice Funky Hotel</t>
+  </si>
+  <si>
+    <t>Great service and friendly reception staff. Nicely renovated rooms, with funky modern decor. Close to restaurants and cafes.Excellent prices for rooms. We were able to walk 100m to a nice Japanese/Korean restaurant for Dinner - O'seyo.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r424799318-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>424799318</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Slickest Hotel--amazingly modern and high end for such a DEAL!</t>
+  </si>
+  <si>
+    <t>Slickest Hotel--amazingly modern and high end refurb, and for such a DEAL!I couldn't get over the quality finishes and amenities.  It's far fancier than the Standard and other hotels like that in Hollywood.  They must spend a lot on the decor too!  Really, really high end look, feel, and super comfortable--can't believe how cheap the rooms are too, best deal in town.Great little hotel in Pasadena with big "wow" factorMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Slickest Hotel--amazingly modern and high end refurb, and for such a DEAL!I couldn't get over the quality finishes and amenities.  It's far fancier than the Standard and other hotels like that in Hollywood.  They must spend a lot on the decor too!  Really, really high end look, feel, and super comfortable--can't believe how cheap the rooms are too, best deal in town.Great little hotel in Pasadena with big "wow" factorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r422552919-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>422552919</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome stay </t>
+  </si>
+  <si>
+    <t>Coolest Jacuzzi Suite I have ever stayed in. Spend the extra money for the jacuzzi room, totally worth it!! Front desk person would always smile and ask if I needed anything. Comfortable bed, great wifi, and decent room prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Coolest Jacuzzi Suite I have ever stayed in. Spend the extra money for the jacuzzi room, totally worth it!! Front desk person would always smile and ask if I needed anything. Comfortable bed, great wifi, and decent room prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r412380631-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>412380631</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Cool Remodeled Budget Boutique but Work in Progress</t>
+  </si>
+  <si>
+    <t>Came in for weekend one day stay booked on Hotels.com after reading reviews. This was apparently formerly a rundown, nondescript Knights Inn until an extensive remodel completed in July 2016, so disregard poor Tripadvisor reviews prior to that date. The result is a 2 story courtyard motel (outside access for those of you who are nervous about such things) with rooms redecorated in cool minimalist modern style and vibe. Presaged by lobby with 2 hanging pod chairs, interior decor is sharp lines in metal and platstic in red and grey tones albeit comfortable, but definitely not warm and fuzzy. Includes combination desk/dresser/closet, table and 2 chairs, bed, and cantilevered night stands on both sides of bed with clock radio. Decent sized flatscreen TV with Direct TV service. No lamps in room- all lights are ceiling canisters which is slightly glarish for in-bed reading or TV watching and some LED accent lights. Room and carpet were very clean, shower large with sufficient hot water, and expansive storage with 2 closets and multiple drawers. Mini fridge, microwave and coffe maker are included although for some reason the carafe was missing :( Linens and towels not plush but were about par for this price class. One thing that mystified me was total lack of hooks in the bathroom for towels and clothes. Also, in-shower dispensers for shampoo, conditioner and body wash were installed at height leaving little room to actually get your hands...Came in for weekend one day stay booked on Hotels.com after reading reviews. This was apparently formerly a rundown, nondescript Knights Inn until an extensive remodel completed in July 2016, so disregard poor Tripadvisor reviews prior to that date. The result is a 2 story courtyard motel (outside access for those of you who are nervous about such things) with rooms redecorated in cool minimalist modern style and vibe. Presaged by lobby with 2 hanging pod chairs, interior decor is sharp lines in metal and platstic in red and grey tones albeit comfortable, but definitely not warm and fuzzy. Includes combination desk/dresser/closet, table and 2 chairs, bed, and cantilevered night stands on both sides of bed with clock radio. Decent sized flatscreen TV with Direct TV service. No lamps in room- all lights are ceiling canisters which is slightly glarish for in-bed reading or TV watching and some LED accent lights. Room and carpet were very clean, shower large with sufficient hot water, and expansive storage with 2 closets and multiple drawers. Mini fridge, microwave and coffe maker are included although for some reason the carafe was missing :( Linens and towels not plush but were about par for this price class. One thing that mystified me was total lack of hooks in the bathroom for towels and clothes. Also, in-shower dispensers for shampoo, conditioner and body wash were installed at height leaving little room to actually get your hands under to obtain product. I was told that additional exterior changes were planned later in year but it probably won't make the smallish parking spaces any bigger. Neighborhood is nothing to speak of so you'll have to drive for meals and sights (no eating facilities at motel). I would recommend to others and would come back, but hope some of the minor finishing touches and details are taken care of so I could upgrade to Excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Came in for weekend one day stay booked on Hotels.com after reading reviews. This was apparently formerly a rundown, nondescript Knights Inn until an extensive remodel completed in July 2016, so disregard poor Tripadvisor reviews prior to that date. The result is a 2 story courtyard motel (outside access for those of you who are nervous about such things) with rooms redecorated in cool minimalist modern style and vibe. Presaged by lobby with 2 hanging pod chairs, interior decor is sharp lines in metal and platstic in red and grey tones albeit comfortable, but definitely not warm and fuzzy. Includes combination desk/dresser/closet, table and 2 chairs, bed, and cantilevered night stands on both sides of bed with clock radio. Decent sized flatscreen TV with Direct TV service. No lamps in room- all lights are ceiling canisters which is slightly glarish for in-bed reading or TV watching and some LED accent lights. Room and carpet were very clean, shower large with sufficient hot water, and expansive storage with 2 closets and multiple drawers. Mini fridge, microwave and coffe maker are included although for some reason the carafe was missing :( Linens and towels not plush but were about par for this price class. One thing that mystified me was total lack of hooks in the bathroom for towels and clothes. Also, in-shower dispensers for shampoo, conditioner and body wash were installed at height leaving little room to actually get your hands...Came in for weekend one day stay booked on Hotels.com after reading reviews. This was apparently formerly a rundown, nondescript Knights Inn until an extensive remodel completed in July 2016, so disregard poor Tripadvisor reviews prior to that date. The result is a 2 story courtyard motel (outside access for those of you who are nervous about such things) with rooms redecorated in cool minimalist modern style and vibe. Presaged by lobby with 2 hanging pod chairs, interior decor is sharp lines in metal and platstic in red and grey tones albeit comfortable, but definitely not warm and fuzzy. Includes combination desk/dresser/closet, table and 2 chairs, bed, and cantilevered night stands on both sides of bed with clock radio. Decent sized flatscreen TV with Direct TV service. No lamps in room- all lights are ceiling canisters which is slightly glarish for in-bed reading or TV watching and some LED accent lights. Room and carpet were very clean, shower large with sufficient hot water, and expansive storage with 2 closets and multiple drawers. Mini fridge, microwave and coffe maker are included although for some reason the carafe was missing :( Linens and towels not plush but were about par for this price class. One thing that mystified me was total lack of hooks in the bathroom for towels and clothes. Also, in-shower dispensers for shampoo, conditioner and body wash were installed at height leaving little room to actually get your hands under to obtain product. I was told that additional exterior changes were planned later in year but it probably won't make the smallish parking spaces any bigger. Neighborhood is nothing to speak of so you'll have to drive for meals and sights (no eating facilities at motel). I would recommend to others and would come back, but hope some of the minor finishing touches and details are taken care of so I could upgrade to Excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r397985404-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>397985404</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Recently renovated and reopened</t>
+  </si>
+  <si>
+    <t>Pros: This place is being extensively renovated, so the rooms are brand new and stylishly decorated. Ours had a nice, large flat screen, two comfy double beds, and a fridge and microwave (no tea/coffee facilities). The bathroom was nice, new, and clean. Front desk was friendly and helpful when we had a couple of small issues (no towels at first, but they were quickly delivered). It's very well-located for anything in Pasadena, and is very close to shops, restaurants, and Caltech. Rates were very competitive for the area. Cons: WiFi went in and out while we were there, but mostly did not work, so I wouldn't count on it being available, at least right now while the place is still under construction. Also, there was a lot of noise around 2-3 AM with other guests returning home, presumably after bars closed, etc. Some more weatherstripping around the doors might help with the noise from the corridor, but I'm not sure what else they could do about this issue. If I came to stay again (and I would stay again) I'd bring earplugs. I gather from older reviews that this place used to be sketchy, but it's under new management and is now very nice - we felt completely safe here. Parking lot was well-lit at night and the door was secure.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Pros: This place is being extensively renovated, so the rooms are brand new and stylishly decorated. Ours had a nice, large flat screen, two comfy double beds, and a fridge and microwave (no tea/coffee facilities). The bathroom was nice, new, and clean. Front desk was friendly and helpful when we had a couple of small issues (no towels at first, but they were quickly delivered). It's very well-located for anything in Pasadena, and is very close to shops, restaurants, and Caltech. Rates were very competitive for the area. Cons: WiFi went in and out while we were there, but mostly did not work, so I wouldn't count on it being available, at least right now while the place is still under construction. Also, there was a lot of noise around 2-3 AM with other guests returning home, presumably after bars closed, etc. Some more weatherstripping around the doors might help with the noise from the corridor, but I'm not sure what else they could do about this issue. If I came to stay again (and I would stay again) I'd bring earplugs. I gather from older reviews that this place used to be sketchy, but it's under new management and is now very nice - we felt completely safe here. Parking lot was well-lit at night and the door was secure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r342721444-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>342721444</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>DANGER!! Stay at this place at your own risk!!</t>
+  </si>
+  <si>
+    <t>This was probably the worst lodging experience of my life! Now I stayed at this place once before when it was owned by a nice Chinese couple who would charge $58 (8 being a lucky number in Chinese culture). Now it's a Knights Inn but it should be called the Brokedown Inn. The first room I was given was filthy! The carpet was black from dirty spots on the table had no chair. I went to the front desk and the snooty girl at the counter gave me room 107. There was no remote control in the room so I had to go back to the front desk to get a remote and after I got it and went back to the room the damn TV still didn't turn on! I looked and there wasn't even an "On" switch on the thing! Air, fan and heat was impossible because the wall unit was unplugged and inoperable. The kmob had fallen off and when I tried to put it back on it wouldn't stay on so I couldn't get it to work.I wanted to ask for a refund and I realize now that I should have! I woke up the next morning itching on my neck. You guessed it...this place has bed bugs!!Stay away from this place at all costs. You'll be glad you did!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This was probably the worst lodging experience of my life! Now I stayed at this place once before when it was owned by a nice Chinese couple who would charge $58 (8 being a lucky number in Chinese culture). Now it's a Knights Inn but it should be called the Brokedown Inn. The first room I was given was filthy! The carpet was black from dirty spots on the table had no chair. I went to the front desk and the snooty girl at the counter gave me room 107. There was no remote control in the room so I had to go back to the front desk to get a remote and after I got it and went back to the room the damn TV still didn't turn on! I looked and there wasn't even an "On" switch on the thing! Air, fan and heat was impossible because the wall unit was unplugged and inoperable. The kmob had fallen off and when I tried to put it back on it wouldn't stay on so I couldn't get it to work.I wanted to ask for a refund and I realize now that I should have! I woke up the next morning itching on my neck. You guessed it...this place has bed bugs!!Stay away from this place at all costs. You'll be glad you did!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r339456192-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>339456192</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Walking distance to stores, centrally located</t>
+  </si>
+  <si>
+    <t>Was ok for the price.  Nice people were operating the desk, helpful and accommodating.  It looked as though some people were residing there but no trouble during my stay.  Close to attractions and sights.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
   </si>
 </sst>
 </file>
@@ -648,6 +978,917 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_20.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_20.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rnemovi2002</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Lisa D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r542738818-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
   </si>
   <si>
     <t>Honestly I LOVED this hotel! I rented a King-sized room and it was lovely - clean, modern and very comfortable. Location is great, really close to a lot of the basics and just far outside of LA enough to skip the traffic when I was driving. Fridge &amp; a microwave as well, both new and lovely. The carpet and all the fixtures were obviously new and very tasteful, and it was hands down the cleanest, nicest bathroom I stayed in all trip. The airline lost my bag and were late delivering it to the hotel, so I was frantically calling and stopping by the front desk all hours looking for it, and the staff were nothing but accommodating and friendly every single time. I couldn't recommend this place highly enough! I know a friend who stopped by to pick me up was equally impressed and has already recommended it to other visiting friends. I'll definitely stay again next time I'm in LA.. thank you Astro Pasadena for making my stay in LA so comfortable :)More</t>
+  </si>
+  <si>
+    <t>Holly S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r512782690-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
@@ -231,6 +240,9 @@
 The bed sheets had stains and looked as if they had seen better days though thankfully, they had been washed. The surfaces around the room were all covered in hand prints and sticky residues. I took the wash cloths from the bathroom and cleaned them before i could begin unpacking and managed to scrape some of the...My first red flag was when i emailed the hotel prior to check in to find out more information and i did not receive a response. The second was when i called to inquire and was hung up on twice then finally got an extremely rude answer.Upon arriving at the 'hotel' (motel with some red plastic inappropriately screwed to the front of the furnishings now = hotel, obviously), i was able to check in with ease, 30 minutes before check in time and the man at the front desk was much more pleasant in person. I thought it was going to be ok after all.Upon entering the room (past the cigarette filled trash cans outside my door), i noticed the room had been updated with a modern twist. Nice idea however, nobody seems to have got the memo that hotel rooms need to be cleaned after every guest, not just paint over the filth once every decade. The walls on the right as i walked in were covered in dirt and had streaks running down them from some sort of liquid.The bed sheets had stains and looked as if they had seen better days though thankfully, they had been washed. The surfaces around the room were all covered in hand prints and sticky residues. I took the wash cloths from the bathroom and cleaned them before i could begin unpacking and managed to scrape some of the caked on food out of the remote so that i dared use it.Upon entering the bathroom, i noticed the mirror was cracked and somebody had carved letters into it. The door was covered in toothpaste and other residues that i can only hope were not fluids excreted from another human. The towels were very small and thin but perfect for cleaning a hotel room. I would recommend using the hotel ones for cleaning and bringing your own to take a shower.On a positive note, the tv has an excellent selection of channels, just make sure you are watching something with plenty of color so you cant see the hand prints and the wifi was very good. There were some nice lights with dimmer switches at the side of the bed which were a nice alternative to lamps. I assume the dollar store extension cable hanging above the door powering who knows what has actually been a fantastic investment.If you need to sleep and you don't mind listening to your upstairs neighbors using the bathroom and you will be on your way again the next morning, this place is perfect.More</t>
   </si>
   <si>
+    <t>sarokee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r491118322-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Anne M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r484769770-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Reasonable, very well located for accessing most of LA within one hour: the beach, Griffith park, Universal Studios, erc. Downtown Pasadena is delightful. The hotel room was clean, bed was comfortable.</t>
   </si>
   <si>
+    <t>HiddenDragon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r466267692-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>CorAl02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r444068332-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>styxfanerin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r442863820-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>This hotel was super cool! I love how it was decorated! The bed was comfy and the room was very clean. There was a mini fridge and microwave and lots of.storage room. Big tv and very cool bathroom! I'm glad we found this place!</t>
   </si>
   <si>
+    <t>Dingo59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r434696903-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>James T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r424799318-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>Slickest Hotel--amazingly modern and high end refurb, and for such a DEAL!I couldn't get over the quality finishes and amenities.  It's far fancier than the Standard and other hotels like that in Hollywood.  They must spend a lot on the decor too!  Really, really high end look, feel, and super comfortable--can't believe how cheap the rooms are too, best deal in town.Great little hotel in Pasadena with big "wow" factorMore</t>
   </si>
   <si>
+    <t>Jacksargsyan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r422552919-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -387,6 +420,9 @@
     <t>Coolest Jacuzzi Suite I have ever stayed in. Spend the extra money for the jacuzzi room, totally worth it!! Front desk person would always smile and ask if I needed anything. Comfortable bed, great wifi, and decent room prices.More</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r412380631-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>Came in for weekend one day stay booked on Hotels.com after reading reviews. This was apparently formerly a rundown, nondescript Knights Inn until an extensive remodel completed in July 2016, so disregard poor Tripadvisor reviews prior to that date. The result is a 2 story courtyard motel (outside access for those of you who are nervous about such things) with rooms redecorated in cool minimalist modern style and vibe. Presaged by lobby with 2 hanging pod chairs, interior decor is sharp lines in metal and platstic in red and grey tones albeit comfortable, but definitely not warm and fuzzy. Includes combination desk/dresser/closet, table and 2 chairs, bed, and cantilevered night stands on both sides of bed with clock radio. Decent sized flatscreen TV with Direct TV service. No lamps in room- all lights are ceiling canisters which is slightly glarish for in-bed reading or TV watching and some LED accent lights. Room and carpet were very clean, shower large with sufficient hot water, and expansive storage with 2 closets and multiple drawers. Mini fridge, microwave and coffe maker are included although for some reason the carafe was missing :( Linens and towels not plush but were about par for this price class. One thing that mystified me was total lack of hooks in the bathroom for towels and clothes. Also, in-shower dispensers for shampoo, conditioner and body wash were installed at height leaving little room to actually get your hands...Came in for weekend one day stay booked on Hotels.com after reading reviews. This was apparently formerly a rundown, nondescript Knights Inn until an extensive remodel completed in July 2016, so disregard poor Tripadvisor reviews prior to that date. The result is a 2 story courtyard motel (outside access for those of you who are nervous about such things) with rooms redecorated in cool minimalist modern style and vibe. Presaged by lobby with 2 hanging pod chairs, interior decor is sharp lines in metal and platstic in red and grey tones albeit comfortable, but definitely not warm and fuzzy. Includes combination desk/dresser/closet, table and 2 chairs, bed, and cantilevered night stands on both sides of bed with clock radio. Decent sized flatscreen TV with Direct TV service. No lamps in room- all lights are ceiling canisters which is slightly glarish for in-bed reading or TV watching and some LED accent lights. Room and carpet were very clean, shower large with sufficient hot water, and expansive storage with 2 closets and multiple drawers. Mini fridge, microwave and coffe maker are included although for some reason the carafe was missing :( Linens and towels not plush but were about par for this price class. One thing that mystified me was total lack of hooks in the bathroom for towels and clothes. Also, in-shower dispensers for shampoo, conditioner and body wash were installed at height leaving little room to actually get your hands under to obtain product. I was told that additional exterior changes were planned later in year but it probably won't make the smallish parking spaces any bigger. Neighborhood is nothing to speak of so you'll have to drive for meals and sights (no eating facilities at motel). I would recommend to others and would come back, but hope some of the minor finishing touches and details are taken care of so I could upgrade to Excellent.More</t>
   </si>
   <si>
+    <t>EM2815</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r397985404-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>Pros: This place is being extensively renovated, so the rooms are brand new and stylishly decorated. Ours had a nice, large flat screen, two comfy double beds, and a fridge and microwave (no tea/coffee facilities). The bathroom was nice, new, and clean. Front desk was friendly and helpful when we had a couple of small issues (no towels at first, but they were quickly delivered). It's very well-located for anything in Pasadena, and is very close to shops, restaurants, and Caltech. Rates were very competitive for the area. Cons: WiFi went in and out while we were there, but mostly did not work, so I wouldn't count on it being available, at least right now while the place is still under construction. Also, there was a lot of noise around 2-3 AM with other guests returning home, presumably after bars closed, etc. Some more weatherstripping around the doors might help with the noise from the corridor, but I'm not sure what else they could do about this issue. If I came to stay again (and I would stay again) I'd bring earplugs. I gather from older reviews that this place used to be sketchy, but it's under new management and is now very nice - we felt completely safe here. Parking lot was well-lit at night and the door was secure.More</t>
   </si>
   <si>
+    <t>Lance P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r342721444-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -460,6 +502,9 @@
   </si>
   <si>
     <t>This was probably the worst lodging experience of my life! Now I stayed at this place once before when it was owned by a nice Chinese couple who would charge $58 (8 being a lucky number in Chinese culture). Now it's a Knights Inn but it should be called the Brokedown Inn. The first room I was given was filthy! The carpet was black from dirty spots on the table had no chair. I went to the front desk and the snooty girl at the counter gave me room 107. There was no remote control in the room so I had to go back to the front desk to get a remote and after I got it and went back to the room the damn TV still didn't turn on! I looked and there wasn't even an "On" switch on the thing! Air, fan and heat was impossible because the wall unit was unplugged and inoperable. The kmob had fallen off and when I tried to put it back on it wouldn't stay on so I couldn't get it to work.I wanted to ask for a refund and I realize now that I should have! I woke up the next morning itching on my neck. You guessed it...this place has bed bugs!!Stay away from this place at all costs. You'll be glad you did!More</t>
+  </si>
+  <si>
+    <t>Eric M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r339456192-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
@@ -982,43 +1027,47 @@
       <c r="A2" t="n">
         <v>44252</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>151431</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1036,50 +1085,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44252</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>12677</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1093,50 +1146,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44252</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>37966</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1156,50 +1213,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44252</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>151432</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1213,50 +1274,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44252</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>7777</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1274,50 +1339,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44252</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>151433</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1331,50 +1400,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44252</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>151434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1392,50 +1465,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44252</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>151435</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1449,50 +1526,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44252</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>151436</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1506,50 +1587,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44252</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>14524</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1565,56 +1650,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44252</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>151437</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1626,56 +1715,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44252</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1693,56 +1786,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>44252</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>151438</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1758,56 +1855,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44252</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>151439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1825,50 +1926,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44252</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>3245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1886,7 +1991,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_20.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_20.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,84 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>rnemovi2002</t>
-  </si>
-  <si>
-    <t>06/27/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r596456329-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>32859</t>
+  </si>
+  <si>
+    <t>1224638</t>
+  </si>
+  <si>
+    <t>596456329</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Safety Risk</t>
+  </si>
+  <si>
+    <t>This remodeled motel lacked electricity during our stay (complete blackout with no air conditioning at 3:00 a.m.), caused me to slip and fall in the bathroom, and was not responsive to any of my emails or in-person complaints. As someone who’s worked in hotels, when a general manager doesn’t even bother to return your calls after an injury on their property, it’s a huge red flag. Just imagine what else they neglect? For your own safety, stay somewhere else.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r586551372-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>586551372</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Mid-century-modern brought to life!</t>
+  </si>
+  <si>
+    <t>This is easily the best motel (inn?) in Pasadena. Priced fairly and featuring sleek MCM rooms and front desk, this little place is fine by me. The room, upon entering, had a peculiar odor but it cleared up in no time after turning on the A/C. Everything was super clean, especially the bathroom, and the TV is huge and has a wide selection of channels. There is a round table with two swivel seats near the window and the A/C unit. Accompanying the well-sized closet is an ironing board and little shoe drawers. Even a small, red retro refrigerator lies in wait behind unassuming cabinets. Each room is entitled to 1 parking space and the parking lot is in great condition; the inn is about 30 minutes from LA. This was a wonderful room and experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This is easily the best motel (inn?) in Pasadena. Priced fairly and featuring sleek MCM rooms and front desk, this little place is fine by me. The room, upon entering, had a peculiar odor but it cleared up in no time after turning on the A/C. Everything was super clean, especially the bathroom, and the TV is huge and has a wide selection of channels. There is a round table with two swivel seats near the window and the A/C unit. Accompanying the well-sized closet is an ironing board and little shoe drawers. Even a small, red retro refrigerator lies in wait behind unassuming cabinets. Each room is entitled to 1 parking space and the parking lot is in great condition; the inn is about 30 minutes from LA. This was a wonderful room and experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r555923792-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>555923792</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Best hotel in Pasadena!</t>
+  </si>
+  <si>
+    <t>Easily the best motel in Pasadena. I stayed at the Astro for a week while I was working in Burbank and I was totally impressed across the board. The rooms were clean and modern, there were new appliances including a fridge,  microwave, and a really nice large HDTV that got all the major cable channels. Best of all was the customer service from the entire staff but especially from the manager Sam. He always went above and beyond to make sure my stay was a pleasant one. Couldn't recommend this hotel enough.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r544314514-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
-    <t>32859</t>
-  </si>
-  <si>
-    <t>1224638</t>
-  </si>
-  <si>
     <t>544314514</t>
   </si>
   <si>
@@ -180,12 +243,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Lisa D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r542738818-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -208,9 +265,6 @@
   </si>
   <si>
     <t>Honestly I LOVED this hotel! I rented a King-sized room and it was lovely - clean, modern and very comfortable. Location is great, really close to a lot of the basics and just far outside of LA enough to skip the traffic when I was driving. Fridge &amp; a microwave as well, both new and lovely. The carpet and all the fixtures were obviously new and very tasteful, and it was hands down the cleanest, nicest bathroom I stayed in all trip. The airline lost my bag and were late delivering it to the hotel, so I was frantically calling and stopping by the front desk all hours looking for it, and the staff were nothing but accommodating and friendly every single time. I couldn't recommend this place highly enough! I know a friend who stopped by to pick me up was equally impressed and has already recommended it to other visiting friends. I'll definitely stay again next time I'm in LA.. thank you Astro Pasadena for making my stay in LA so comfortable :)More</t>
-  </si>
-  <si>
-    <t>Holly S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r512782690-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
@@ -240,7 +294,43 @@
 The bed sheets had stains and looked as if they had seen better days though thankfully, they had been washed. The surfaces around the room were all covered in hand prints and sticky residues. I took the wash cloths from the bathroom and cleaned them before i could begin unpacking and managed to scrape some of the...My first red flag was when i emailed the hotel prior to check in to find out more information and i did not receive a response. The second was when i called to inquire and was hung up on twice then finally got an extremely rude answer.Upon arriving at the 'hotel' (motel with some red plastic inappropriately screwed to the front of the furnishings now = hotel, obviously), i was able to check in with ease, 30 minutes before check in time and the man at the front desk was much more pleasant in person. I thought it was going to be ok after all.Upon entering the room (past the cigarette filled trash cans outside my door), i noticed the room had been updated with a modern twist. Nice idea however, nobody seems to have got the memo that hotel rooms need to be cleaned after every guest, not just paint over the filth once every decade. The walls on the right as i walked in were covered in dirt and had streaks running down them from some sort of liquid.The bed sheets had stains and looked as if they had seen better days though thankfully, they had been washed. The surfaces around the room were all covered in hand prints and sticky residues. I took the wash cloths from the bathroom and cleaned them before i could begin unpacking and managed to scrape some of the caked on food out of the remote so that i dared use it.Upon entering the bathroom, i noticed the mirror was cracked and somebody had carved letters into it. The door was covered in toothpaste and other residues that i can only hope were not fluids excreted from another human. The towels were very small and thin but perfect for cleaning a hotel room. I would recommend using the hotel ones for cleaning and bringing your own to take a shower.On a positive note, the tv has an excellent selection of channels, just make sure you are watching something with plenty of color so you cant see the hand prints and the wifi was very good. There were some nice lights with dimmer switches at the side of the bed which were a nice alternative to lamps. I assume the dollar store extension cable hanging above the door powering who knows what has actually been a fantastic investment.If you need to sleep and you don't mind listening to your upstairs neighbors using the bathroom and you will be on your way again the next morning, this place is perfect.More</t>
   </si>
   <si>
-    <t>sarokee</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r500368415-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>500368415</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Clean and cute</t>
+  </si>
+  <si>
+    <t>The room was very clean and the motel was cute with a retro feel.  Stayed one night and for the price it was better than I expected. Turned the air on and it was very cold and the fan blocked out any outside noise. Would stay there again.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r498036268-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>498036268</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Very Simple</t>
+  </si>
+  <si>
+    <t>If you are just simply looking for easy check-in, a shower, and bed this is the place. The family running the place is extremely kind and helpful. We mentioned the shower being backed up and he was extremely thankful. They do take CC info in case but no pending holds. It is great if you're looking for somewhere nice, and affordable for the night. They do not have restaurants, food or anything,which is fine. Location is a little sketch but convenient.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r491118322-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
@@ -261,12 +351,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Anne M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r484769770-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -282,9 +366,6 @@
     <t>Reasonable, very well located for accessing most of LA within one hour: the beach, Griffith park, Universal Studios, erc. Downtown Pasadena is delightful. The hotel room was clean, bed was comfortable.</t>
   </si>
   <si>
-    <t>HiddenDragon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r466267692-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -303,7 +384,43 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>CorAl02</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r464173259-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>464173259</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Plenty for your money</t>
+  </si>
+  <si>
+    <t>We enjoyed this hotel. Looks newly renovated (we were there 2/17), with everything included, from fridge to ironing board, in one large versatile set of cupboards. Very large flat screen TV. Comfortable bed, lots of pillows. Nice bathroom, shower has sliding glass doors. Only real drawback, the a/c-heater was extremely loud, went off and on all night. Minor problem: fancy counter-top sink was installed on a standard-height counter so the sink was too high, therefore mirror too high too. Sink cannot be stopped to hold water for shaving -- by design, as it also has no overflow. Otherwise it was just fine, and yes, very clean. Courteous staff at front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We enjoyed this hotel. Looks newly renovated (we were there 2/17), with everything included, from fridge to ironing board, in one large versatile set of cupboards. Very large flat screen TV. Comfortable bed, lots of pillows. Nice bathroom, shower has sliding glass doors. Only real drawback, the a/c-heater was extremely loud, went off and on all night. Minor problem: fancy counter-top sink was installed on a standard-height counter so the sink was too high, therefore mirror too high too. Sink cannot be stopped to hold water for shaving -- by design, as it also has no overflow. Otherwise it was just fine, and yes, very clean. Courteous staff at front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r450569187-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>450569187</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Clean and Modern</t>
+  </si>
+  <si>
+    <t>The room was very clean, and the bed was super comfy! We were definitely glad that there was a fridge as well. The staff were super pleasant to deal with, both during check-in and check-out. I guess the only con is that we always had to spend a good 30-45 mins in traffic, as most of the places we wanted to check out were in downtown LA, but overall, our stay was pleasant, and it's a great hotel for the price.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r444068332-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
@@ -324,9 +441,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>styxfanerin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r442863820-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -342,9 +456,6 @@
     <t>This hotel was super cool! I love how it was decorated! The bed was comfy and the room was very clean. There was a mini fridge and microwave and lots of.storage room. Big tv and very cool bathroom! I'm glad we found this place!</t>
   </si>
   <si>
-    <t>Dingo59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r434696903-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -360,10 +471,46 @@
     <t>Great service and friendly reception staff. Nicely renovated rooms, with funky modern decor. Close to restaurants and cafes.Excellent prices for rooms. We were able to walk 100m to a nice Japanese/Korean restaurant for Dinner - O'seyo.</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t>James T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r428998055-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>428998055</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location was perfect. Easy access to buses to down town. Walking distance to metro, KFC, Denny's ,restaurants, Vons,etc. Room was amazing with huge TV !! Was so glad to have microwave for midnight snacks. Only problem was no place / hooks to hang out wet towels. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r428804753-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>428804753</t>
+  </si>
+  <si>
+    <t>Perfect, Romantic Stay</t>
+  </si>
+  <si>
+    <t>My boyfriend and I needed a staycation if you will, since we live only about 20 minutes away. This was a last minute booking as well (I think I booked this at 4pm Friday for that night), but it worked out well. The hotel is super cool, a modern twist on a funky 50s motel. The staff was really friendly and this is a super clean hotel. I love the decor and the bed was very comfortable. We stayed in one of the rooms with a jacuzzi tub, which was perfect to sit back and unwind from a stressful week. I do wish our stay could have been longer, and hope to be back soon. I felt it was a great value for our stay &lt;3MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>My boyfriend and I needed a staycation if you will, since we live only about 20 minutes away. This was a last minute booking as well (I think I booked this at 4pm Friday for that night), but it worked out well. The hotel is super cool, a modern twist on a funky 50s motel. The staff was really friendly and this is a super clean hotel. I love the decor and the bed was very comfortable. We stayed in one of the rooms with a jacuzzi tub, which was perfect to sit back and unwind from a stressful week. I do wish our stay could have been longer, and hope to be back soon. I felt it was a great value for our stay &lt;3More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r424799318-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
@@ -381,9 +528,6 @@
     <t>Slickest Hotel--amazingly modern and high end refurb, and for such a DEAL!I couldn't get over the quality finishes and amenities.  It's far fancier than the Standard and other hotels like that in Hollywood.  They must spend a lot on the decor too!  Really, really high end look, feel, and super comfortable--can't believe how cheap the rooms are too, best deal in town.Great little hotel in Pasadena with big "wow" factorMoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded October 5, 2016</t>
   </si>
   <si>
@@ -393,9 +537,6 @@
     <t>Slickest Hotel--amazingly modern and high end refurb, and for such a DEAL!I couldn't get over the quality finishes and amenities.  It's far fancier than the Standard and other hotels like that in Hollywood.  They must spend a lot on the decor too!  Really, really high end look, feel, and super comfortable--can't believe how cheap the rooms are too, best deal in town.Great little hotel in Pasadena with big "wow" factorMore</t>
   </si>
   <si>
-    <t>Jacksargsyan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r422552919-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -420,9 +561,6 @@
     <t>Coolest Jacuzzi Suite I have ever stayed in. Spend the extra money for the jacuzzi room, totally worth it!! Front desk person would always smile and ask if I needed anything. Comfortable bed, great wifi, and decent room prices.More</t>
   </si>
   <si>
-    <t>Mark S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r412380631-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -450,7 +588,55 @@
     <t>Came in for weekend one day stay booked on Hotels.com after reading reviews. This was apparently formerly a rundown, nondescript Knights Inn until an extensive remodel completed in July 2016, so disregard poor Tripadvisor reviews prior to that date. The result is a 2 story courtyard motel (outside access for those of you who are nervous about such things) with rooms redecorated in cool minimalist modern style and vibe. Presaged by lobby with 2 hanging pod chairs, interior decor is sharp lines in metal and platstic in red and grey tones albeit comfortable, but definitely not warm and fuzzy. Includes combination desk/dresser/closet, table and 2 chairs, bed, and cantilevered night stands on both sides of bed with clock radio. Decent sized flatscreen TV with Direct TV service. No lamps in room- all lights are ceiling canisters which is slightly glarish for in-bed reading or TV watching and some LED accent lights. Room and carpet were very clean, shower large with sufficient hot water, and expansive storage with 2 closets and multiple drawers. Mini fridge, microwave and coffe maker are included although for some reason the carafe was missing :( Linens and towels not plush but were about par for this price class. One thing that mystified me was total lack of hooks in the bathroom for towels and clothes. Also, in-shower dispensers for shampoo, conditioner and body wash were installed at height leaving little room to actually get your hands...Came in for weekend one day stay booked on Hotels.com after reading reviews. This was apparently formerly a rundown, nondescript Knights Inn until an extensive remodel completed in July 2016, so disregard poor Tripadvisor reviews prior to that date. The result is a 2 story courtyard motel (outside access for those of you who are nervous about such things) with rooms redecorated in cool minimalist modern style and vibe. Presaged by lobby with 2 hanging pod chairs, interior decor is sharp lines in metal and platstic in red and grey tones albeit comfortable, but definitely not warm and fuzzy. Includes combination desk/dresser/closet, table and 2 chairs, bed, and cantilevered night stands on both sides of bed with clock radio. Decent sized flatscreen TV with Direct TV service. No lamps in room- all lights are ceiling canisters which is slightly glarish for in-bed reading or TV watching and some LED accent lights. Room and carpet were very clean, shower large with sufficient hot water, and expansive storage with 2 closets and multiple drawers. Mini fridge, microwave and coffe maker are included although for some reason the carafe was missing :( Linens and towels not plush but were about par for this price class. One thing that mystified me was total lack of hooks in the bathroom for towels and clothes. Also, in-shower dispensers for shampoo, conditioner and body wash were installed at height leaving little room to actually get your hands under to obtain product. I was told that additional exterior changes were planned later in year but it probably won't make the smallish parking spaces any bigger. Neighborhood is nothing to speak of so you'll have to drive for meals and sights (no eating facilities at motel). I would recommend to others and would come back, but hope some of the minor finishing touches and details are taken care of so I could upgrade to Excellent.More</t>
   </si>
   <si>
-    <t>EM2815</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r406689374-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>406689374</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Don't judge it by the exterior...</t>
+  </si>
+  <si>
+    <t>Driving through Pasadena we stumbled upon this Motel. It is a motel not a hotel, the exterior shows that. It is two levels and you enter each room from the outside. It has been recently renovated and the interior shows that. The rooms are spacious and have a nice seating area with retro looking table and chairs. It is all decorated with a "Jetson" like feel, with gray and red tones. Each room has a nice red refrigerator, stainless steel microwave and a nice flat screen tv. Plenty of closet space, and a fantastic bathroom with giant walk in shower. The only improvement I would suggest is spiffing up the exterior &amp; perhaps having a more thorough cleaning staff. I would stay here again if I was in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Driving through Pasadena we stumbled upon this Motel. It is a motel not a hotel, the exterior shows that. It is two levels and you enter each room from the outside. It has been recently renovated and the interior shows that. The rooms are spacious and have a nice seating area with retro looking table and chairs. It is all decorated with a "Jetson" like feel, with gray and red tones. Each room has a nice red refrigerator, stainless steel microwave and a nice flat screen tv. Plenty of closet space, and a fantastic bathroom with giant walk in shower. The only improvement I would suggest is spiffing up the exterior &amp; perhaps having a more thorough cleaning staff. I would stay here again if I was in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r401352806-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>401352806</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Absolutely  gorgeous! Newly renovated!</t>
+  </si>
+  <si>
+    <t>This Hotel is absolutely amazing! We were traveling to Pasadena on Monday and booked this hotel. Honestly speaking I read the reviews only after I booked and was quite  afraid if I did the right choice. But our experience was more then 5stars. The reception looks like you are on the starship heading to Andromeda. The receptionist was friendly and helpful. Our room was very with a new jacuzzi. Everything smells new. The design of the room is great! Red and dark wood color combinations - perfect for a photoshoot!Our experience was totally positive.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded August 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2016</t>
+  </si>
+  <si>
+    <t>This Hotel is absolutely amazing! We were traveling to Pasadena on Monday and booked this hotel. Honestly speaking I read the reviews only after I booked and was quite  afraid if I did the right choice. But our experience was more then 5stars. The reception looks like you are on the starship heading to Andromeda. The receptionist was friendly and helpful. Our room was very with a new jacuzzi. Everything smells new. The design of the room is great! Red and dark wood color combinations - perfect for a photoshoot!Our experience was totally positive.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r397985404-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
@@ -468,9 +654,6 @@
     <t>Pros: This place is being extensively renovated, so the rooms are brand new and stylishly decorated. Ours had a nice, large flat screen, two comfy double beds, and a fridge and microwave (no tea/coffee facilities). The bathroom was nice, new, and clean. Front desk was friendly and helpful when we had a couple of small issues (no towels at first, but they were quickly delivered). It's very well-located for anything in Pasadena, and is very close to shops, restaurants, and Caltech. Rates were very competitive for the area. Cons: WiFi went in and out while we were there, but mostly did not work, so I wouldn't count on it being available, at least right now while the place is still under construction. Also, there was a lot of noise around 2-3 AM with other guests returning home, presumably after bars closed, etc. Some more weatherstripping around the doors might help with the noise from the corridor, but I'm not sure what else they could do about this issue. If I came to stay again (and I would stay again) I'd bring earplugs. I gather from older reviews that this place used to be sketchy, but it's under new management and is now very nice - we felt completely safe here. Parking lot was well-lit at night and the door was secure.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>AstroPasadenaHotelGM, General Manager at The Astro Pasadena Hotel, responded to this reviewResponded August 4, 2016</t>
   </si>
   <si>
@@ -480,9 +663,6 @@
     <t>Pros: This place is being extensively renovated, so the rooms are brand new and stylishly decorated. Ours had a nice, large flat screen, two comfy double beds, and a fridge and microwave (no tea/coffee facilities). The bathroom was nice, new, and clean. Front desk was friendly and helpful when we had a couple of small issues (no towels at first, but they were quickly delivered). It's very well-located for anything in Pasadena, and is very close to shops, restaurants, and Caltech. Rates were very competitive for the area. Cons: WiFi went in and out while we were there, but mostly did not work, so I wouldn't count on it being available, at least right now while the place is still under construction. Also, there was a lot of noise around 2-3 AM with other guests returning home, presumably after bars closed, etc. Some more weatherstripping around the doors might help with the noise from the corridor, but I'm not sure what else they could do about this issue. If I came to stay again (and I would stay again) I'd bring earplugs. I gather from older reviews that this place used to be sketchy, but it's under new management and is now very nice - we felt completely safe here. Parking lot was well-lit at night and the door was secure.More</t>
   </si>
   <si>
-    <t>Lance P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r342721444-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -504,9 +684,6 @@
     <t>This was probably the worst lodging experience of my life! Now I stayed at this place once before when it was owned by a nice Chinese couple who would charge $58 (8 being a lucky number in Chinese culture). Now it's a Knights Inn but it should be called the Brokedown Inn. The first room I was given was filthy! The carpet was black from dirty spots on the table had no chair. I went to the front desk and the snooty girl at the counter gave me room 107. There was no remote control in the room so I had to go back to the front desk to get a remote and after I got it and went back to the room the damn TV still didn't turn on! I looked and there wasn't even an "On" switch on the thing! Air, fan and heat was impossible because the wall unit was unplugged and inoperable. The kmob had fallen off and when I tried to put it back on it wouldn't stay on so I couldn't get it to work.I wanted to ask for a refund and I realize now that I should have! I woke up the next morning itching on my neck. You guessed it...this place has bed bugs!!Stay away from this place at all costs. You'll be glad you did!More</t>
   </si>
   <si>
-    <t>Eric M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r339456192-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
   </si>
   <si>
@@ -523,6 +700,46 @@
   </si>
   <si>
     <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r337405949-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>337405949</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Rose Parade Dream turns into Hotel Hell Nightmare!</t>
+  </si>
+  <si>
+    <t>By far the worst hotel experience I have ever had.  I am a social worker from Illinois in the Chicago area and in all of my 21 years of visiting down and out clients, I have never stepped foot in a room so nasty and disgusting as the rooms offered to me and my guests.  I was absolutely horrified when I opened the door to my confirmed "non-smoking" King size room.  The smell of smoke and old staleness was overwhelming.  
+What was supposed to be a once in a lifetime family dream trip to Pasadena to see the Rose Parade was overshadowed by the filth of this hotel.  I was traveling with my family and guests and booked and paid for two rooms prior to going inside the rooms.  Upon entering the rooms, within 30 minutes, my 20 year old son had changed his flight to leave a day earlier and had secured an Uber ride to LAX.  He refused to stay in the filth.  Unfortunately, for me and my other guests, we had no choice but to try to make the best of it. 
+We changed rooms, but the smell was still very present, but at least the black handprint smudge on the wall in the first unit was replaced by what appeared to be dried blood on the bathroom wall.  (At least in this unit, the microwave did not have broken knobs and actually worked!) Again after being...By far the worst hotel experience I have ever had.  I am a social worker from Illinois in the Chicago area and in all of my 21 years of visiting down and out clients, I have never stepped foot in a room so nasty and disgusting as the rooms offered to me and my guests.  I was absolutely horrified when I opened the door to my confirmed "non-smoking" King size room.  The smell of smoke and old staleness was overwhelming.  What was supposed to be a once in a lifetime family dream trip to Pasadena to see the Rose Parade was overshadowed by the filth of this hotel.  I was traveling with my family and guests and booked and paid for two rooms prior to going inside the rooms.  Upon entering the rooms, within 30 minutes, my 20 year old son had changed his flight to leave a day earlier and had secured an Uber ride to LAX.  He refused to stay in the filth.  Unfortunately, for me and my other guests, we had no choice but to try to make the best of it. We changed rooms, but the smell was still very present, but at least the black handprint smudge on the wall in the first unit was replaced by what appeared to be dried blood on the bathroom wall.  (At least in this unit, the microwave did not have broken knobs and actually worked!) Again after being assured that this was indeed a "non-smoking" room, I noticed a cigarette burn in the comforter. We, along with several other guests that checked in around the same time, felt the need to leave the door open to provide some ventilation in the musty, smoke smelling rooms.  I visited their room and was even more horrified when I realized that their room was worse than ours. It was so bad that these total strangers asked to bunk with us!After calling around trying to determine if there were any available rooms last minute on New Year's Eve, we were informed that everything within a twelve mile radius was booked.  I then informed the manager that I would be checking out the following morning, despite having booked two nights. I was informed that there may be a problem with refunding my money.  Instead of causing a scene in front of my mother and my other guests, I decided to call Wyndham customer service, as I had booked this hell hotel through them.  I was initially told that my money could not be refunded, but after speaking to a manager, I was informed that I could file a complaint, which I did, and my money would be refunded.At this point, my guests and I decided that the best strategy would be to spend as little time in the room as possible, so we headed out for a movie on New Year's Eve.  Prior to returning to the room, however, we stopped by a Target store where I spent $120 on sleeping bags, pillows, pillow cases, sanitation wipes, wash cloths and bath towels. There was no way I was going to sleep under the comforter in this place.  Upon awakening in the morning, trying to prepare for the big parade, I discovered that the hot water worked, but the cold water did not, therefore I was unable to shower and had to quickly wash my face before the hot water became scalding!  Also, there was no iron and no continental breakfast, not even a donut, so we had breakfast at the Denny's down the street. We were able to find a Residence Inn near LAX and left immediately after the parade was over having to incur an additional $267 for the night.  Hands down...THE WORST HOTEL EXPERIENCE EVER!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>By far the worst hotel experience I have ever had.  I am a social worker from Illinois in the Chicago area and in all of my 21 years of visiting down and out clients, I have never stepped foot in a room so nasty and disgusting as the rooms offered to me and my guests.  I was absolutely horrified when I opened the door to my confirmed "non-smoking" King size room.  The smell of smoke and old staleness was overwhelming.  
+What was supposed to be a once in a lifetime family dream trip to Pasadena to see the Rose Parade was overshadowed by the filth of this hotel.  I was traveling with my family and guests and booked and paid for two rooms prior to going inside the rooms.  Upon entering the rooms, within 30 minutes, my 20 year old son had changed his flight to leave a day earlier and had secured an Uber ride to LAX.  He refused to stay in the filth.  Unfortunately, for me and my other guests, we had no choice but to try to make the best of it. 
+We changed rooms, but the smell was still very present, but at least the black handprint smudge on the wall in the first unit was replaced by what appeared to be dried blood on the bathroom wall.  (At least in this unit, the microwave did not have broken knobs and actually worked!) Again after being...By far the worst hotel experience I have ever had.  I am a social worker from Illinois in the Chicago area and in all of my 21 years of visiting down and out clients, I have never stepped foot in a room so nasty and disgusting as the rooms offered to me and my guests.  I was absolutely horrified when I opened the door to my confirmed "non-smoking" King size room.  The smell of smoke and old staleness was overwhelming.  What was supposed to be a once in a lifetime family dream trip to Pasadena to see the Rose Parade was overshadowed by the filth of this hotel.  I was traveling with my family and guests and booked and paid for two rooms prior to going inside the rooms.  Upon entering the rooms, within 30 minutes, my 20 year old son had changed his flight to leave a day earlier and had secured an Uber ride to LAX.  He refused to stay in the filth.  Unfortunately, for me and my other guests, we had no choice but to try to make the best of it. We changed rooms, but the smell was still very present, but at least the black handprint smudge on the wall in the first unit was replaced by what appeared to be dried blood on the bathroom wall.  (At least in this unit, the microwave did not have broken knobs and actually worked!) Again after being assured that this was indeed a "non-smoking" room, I noticed a cigarette burn in the comforter. We, along with several other guests that checked in around the same time, felt the need to leave the door open to provide some ventilation in the musty, smoke smelling rooms.  I visited their room and was even more horrified when I realized that their room was worse than ours. It was so bad that these total strangers asked to bunk with us!After calling around trying to determine if there were any available rooms last minute on New Year's Eve, we were informed that everything within a twelve mile radius was booked.  I then informed the manager that I would be checking out the following morning, despite having booked two nights. I was informed that there may be a problem with refunding my money.  Instead of causing a scene in front of my mother and my other guests, I decided to call Wyndham customer service, as I had booked this hell hotel through them.  I was initially told that my money could not be refunded, but after speaking to a manager, I was informed that I could file a complaint, which I did, and my money would be refunded.At this point, my guests and I decided that the best strategy would be to spend as little time in the room as possible, so we headed out for a movie on New Year's Eve.  Prior to returning to the room, however, we stopped by a Target store where I spent $120 on sleeping bags, pillows, pillow cases, sanitation wipes, wash cloths and bath towels. There was no way I was going to sleep under the comforter in this place.  Upon awakening in the morning, trying to prepare for the big parade, I discovered that the hot water worked, but the cold water did not, therefore I was unable to shower and had to quickly wash my face before the hot water became scalding!  Also, there was no iron and no continental breakfast, not even a donut, so we had breakfast at the Denny's down the street. We were able to find a Residence Inn near LAX and left immediately after the parade was over having to incur an additional $267 for the night.  Hands down...THE WORST HOTEL EXPERIENCE EVER!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d1224638-r332710255-The_Astro_Pasadena_Hotel-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>332710255</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Really a dump..</t>
+  </si>
+  <si>
+    <t>I posted a negative review for this property, but they changed the name..smart but it is still a dump, not even worthy of the new  Knight's Inn name..If you like dealing with people who don't speak English through a bullet Proof Glass, this is your place.Just about as bad as it can get..Why the Pasadena Tourist's Board even allows places like this to be presented as one of their recommended Accommodations in the Pasadena Area is just beyond me....</t>
   </si>
 </sst>
 </file>
@@ -1027,112 +1244,100 @@
       <c r="A2" t="n">
         <v>44252</v>
       </c>
-      <c r="B2" t="n">
-        <v>151431</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>44252</v>
       </c>
-      <c r="B3" t="n">
-        <v>12677</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1146,66 +1351,62 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>44252</v>
       </c>
-      <c r="B4" t="n">
-        <v>37966</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1213,251 +1414,243 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>44252</v>
       </c>
-      <c r="B5" t="n">
-        <v>151432</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>44252</v>
       </c>
-      <c r="B6" t="n">
-        <v>7777</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>44252</v>
       </c>
-      <c r="B7" t="n">
-        <v>151433</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>44252</v>
       </c>
-      <c r="B8" t="n">
-        <v>151434</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1465,115 +1658,113 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>44252</v>
       </c>
-      <c r="B9" t="n">
-        <v>151435</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>44252</v>
       </c>
-      <c r="B10" t="n">
-        <v>151436</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>108</v>
       </c>
-      <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1587,114 +1778,102 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>44252</v>
       </c>
-      <c r="B11" t="n">
-        <v>14524</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>120</v>
-      </c>
-      <c r="X11" t="s">
-        <v>121</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44252</v>
       </c>
-      <c r="B12" t="n">
-        <v>151437</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -1703,7 +1882,7 @@
         <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1714,65 +1893,57 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>129</v>
-      </c>
-      <c r="X12" t="s">
-        <v>130</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>44252</v>
       </c>
-      <c r="B13" t="n">
-        <v>8110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
@@ -1785,66 +1956,58 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>139</v>
-      </c>
-      <c r="X13" t="s">
-        <v>140</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>44252</v>
       </c>
-      <c r="B14" t="n">
-        <v>151438</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
@@ -1854,71 +2017,63 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>149</v>
-      </c>
-      <c r="X14" t="s">
-        <v>150</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>44252</v>
       </c>
-      <c r="B15" t="n">
-        <v>151439</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1926,72 +2081,867 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>44252</v>
       </c>
-      <c r="B16" t="n">
-        <v>3245</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
         <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>176</v>
+      </c>
+      <c r="X21" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>185</v>
+      </c>
+      <c r="X22" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>193</v>
+      </c>
+      <c r="X23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
